--- a/Part-1/Pandas_Mini_Project_Task_B/output/Bootcamppart2.xlsx
+++ b/Part-1/Pandas_Mini_Project_Task_B/output/Bootcamppart2.xlsx
@@ -49,27 +49,27 @@
     <t>Turing</t>
   </si>
   <si>
+    <t>App Academy</t>
+  </si>
+  <si>
     <t>Hackbright Academy</t>
   </si>
   <si>
-    <t>App Academy</t>
-  </si>
-  <si>
     <t>Code Fellows</t>
   </si>
   <si>
     <t>Bloc.io</t>
   </si>
   <si>
+    <t>Galvanize</t>
+  </si>
+  <si>
+    <t>MakerSquare</t>
+  </si>
+  <si>
     <t>New York Code + Design Academy</t>
   </si>
   <si>
-    <t>MakerSquare</t>
-  </si>
-  <si>
-    <t>Galvanize</t>
-  </si>
-  <si>
     <t>Coding Dojo</t>
   </si>
   <si>
@@ -85,30 +85,30 @@
     <t>Dev Academy</t>
   </si>
   <si>
+    <t>Tech Talent South</t>
+  </si>
+  <si>
     <t>Makers Academy</t>
   </si>
   <si>
-    <t>Tech Talent South</t>
-  </si>
-  <si>
     <t>Coder Camps</t>
   </si>
   <si>
     <t>Codeup</t>
   </si>
   <si>
+    <t>DevMountain</t>
+  </si>
+  <si>
+    <t>Launch Academy</t>
+  </si>
+  <si>
+    <t>Viking Code School</t>
+  </si>
+  <si>
     <t>Software Guild</t>
   </si>
   <si>
-    <t>Viking Code School</t>
-  </si>
-  <si>
-    <t>Launch Academy</t>
-  </si>
-  <si>
-    <t>DevMountain</t>
-  </si>
-  <si>
     <t>Ada</t>
   </si>
   <si>
@@ -118,264 +118,264 @@
     <t>4Geeks Academy</t>
   </si>
   <si>
+    <t>Startup Institute</t>
+  </si>
+  <si>
+    <t>Anyone Can Learn To Code</t>
+  </si>
+  <si>
     <t>CodeNinja</t>
   </si>
   <si>
-    <t>Anyone Can Learn To Code</t>
-  </si>
-  <si>
     <t>IronHack</t>
   </si>
   <si>
-    <t>Startup Institute</t>
+    <t>Thinkful</t>
+  </si>
+  <si>
+    <t>Wyncode</t>
   </si>
   <si>
     <t>Fullstack Academy</t>
   </si>
   <si>
-    <t>Wyncode</t>
-  </si>
-  <si>
-    <t>Thinkful</t>
+    <t>10x.org.il</t>
+  </si>
+  <si>
+    <t>Nashville Software School</t>
   </si>
   <si>
     <t>CareerFoundry</t>
   </si>
   <si>
+    <t>Bitmaker Labs</t>
+  </si>
+  <si>
     <t>CodeCore Bootcamp</t>
   </si>
   <si>
-    <t>10x.org.il</t>
-  </si>
-  <si>
-    <t>Nashville Software School</t>
-  </si>
-  <si>
-    <t>Bitmaker Labs</t>
+    <t>Sabio.la</t>
+  </si>
+  <si>
+    <t>Academia de Código</t>
+  </si>
+  <si>
+    <t>Skillcrush</t>
+  </si>
+  <si>
+    <t>RefactorU</t>
+  </si>
+  <si>
+    <t>Codify Academy</t>
+  </si>
+  <si>
+    <t>Bit Bootcamp</t>
+  </si>
+  <si>
+    <t>Lighthouse Labs</t>
+  </si>
+  <si>
+    <t>devCodeCamp</t>
   </si>
   <si>
     <t>Camp Code Away</t>
   </si>
   <si>
+    <t>LAMP Camp</t>
+  </si>
+  <si>
     <t>Devschool</t>
   </si>
   <si>
+    <t>Rutgers Coding Bootcamp</t>
+  </si>
+  <si>
     <t>Codesmith</t>
   </si>
   <si>
-    <t>Academia de Código</t>
-  </si>
-  <si>
-    <t>devCodeCamp</t>
-  </si>
-  <si>
-    <t>Sabio.la</t>
-  </si>
-  <si>
-    <t>LAMP Camp</t>
-  </si>
-  <si>
-    <t>RefactorU</t>
-  </si>
-  <si>
-    <t>Rutgers Coding Bootcamp</t>
-  </si>
-  <si>
-    <t>Skillcrush</t>
-  </si>
-  <si>
-    <t>Codify Academy</t>
-  </si>
-  <si>
-    <t>Bit Bootcamp</t>
-  </si>
-  <si>
-    <t>Lighthouse Labs</t>
+    <t>Zip Code Wilmington</t>
+  </si>
+  <si>
+    <t>Coding House</t>
+  </si>
+  <si>
+    <t>Orange County Code School</t>
+  </si>
+  <si>
+    <t>Dev League</t>
   </si>
   <si>
     <t>BrainStation</t>
   </si>
   <si>
+    <t>tradecraft</t>
+  </si>
+  <si>
+    <t>Learn.Modern-Developer</t>
+  </si>
+  <si>
+    <t>Grand Circus</t>
+  </si>
+  <si>
+    <t>Tech Academy Portland</t>
+  </si>
+  <si>
+    <t>Grace Hopper Academy</t>
+  </si>
+  <si>
     <t>Starter League</t>
   </si>
   <si>
-    <t>Orange County Code School</t>
-  </si>
-  <si>
-    <t>Coding House</t>
+    <t>We Can Code IT</t>
   </si>
   <si>
     <t>LEARN Academy</t>
   </si>
   <si>
-    <t>Zip Code Wilmington</t>
-  </si>
-  <si>
-    <t>Tech Academy Portland</t>
-  </si>
-  <si>
     <t>V School</t>
   </si>
   <si>
-    <t>Grand Circus</t>
-  </si>
-  <si>
-    <t>Learn.Modern-Developer</t>
-  </si>
-  <si>
-    <t>tradecraft</t>
-  </si>
-  <si>
-    <t>We Can Code IT</t>
-  </si>
-  <si>
-    <t>Dev League</t>
-  </si>
-  <si>
-    <t>Grace Hopper Academy</t>
+    <t>Coder Factory</t>
+  </si>
+  <si>
+    <t>PDX Code Guild</t>
+  </si>
+  <si>
+    <t>HackerYou</t>
+  </si>
+  <si>
+    <t>LearningFuze</t>
+  </si>
+  <si>
+    <t>CODEcamp Charleston</t>
+  </si>
+  <si>
+    <t>BoiseCodeWorks</t>
+  </si>
+  <si>
+    <t>DigitalCrafts</t>
+  </si>
+  <si>
+    <t>We Got Coders</t>
   </si>
   <si>
     <t>Code Platoon</t>
   </si>
   <si>
-    <t>Coder Factory</t>
+    <t>Fire Bootcamp</t>
+  </si>
+  <si>
+    <t>Big Nerd Ranch</t>
+  </si>
+  <si>
+    <t>Digital House</t>
+  </si>
+  <si>
+    <t>Codecademy Labs</t>
+  </si>
+  <si>
+    <t>Telegraph Academy</t>
+  </si>
+  <si>
+    <t>Metis</t>
+  </si>
+  <si>
+    <t>Mobile Makers Academy</t>
+  </si>
+  <si>
+    <t>Eleven Fifty Academy</t>
+  </si>
+  <si>
+    <t>Omaha Code School</t>
+  </si>
+  <si>
+    <t>EHD Academy</t>
   </si>
   <si>
     <t>AcadGild</t>
   </si>
   <si>
-    <t>Big Nerd Ranch</t>
-  </si>
-  <si>
-    <t>LearningFuze</t>
-  </si>
-  <si>
-    <t>Telegraph Academy</t>
-  </si>
-  <si>
-    <t>Mobile Makers Academy</t>
-  </si>
-  <si>
-    <t>Metis</t>
-  </si>
-  <si>
-    <t>EHD Academy</t>
-  </si>
-  <si>
-    <t>PDX Code Guild</t>
-  </si>
-  <si>
-    <t>Codecademy Labs</t>
-  </si>
-  <si>
-    <t>Omaha Code School</t>
-  </si>
-  <si>
-    <t>CODEcamp Charleston</t>
-  </si>
-  <si>
-    <t>BoiseCodeWorks</t>
-  </si>
-  <si>
-    <t>Digital House</t>
-  </si>
-  <si>
-    <t>DigitalCrafts</t>
-  </si>
-  <si>
-    <t>We Got Coders</t>
-  </si>
-  <si>
-    <t>Eleven Fifty Academy</t>
-  </si>
-  <si>
-    <t>Fire Bootcamp</t>
-  </si>
-  <si>
-    <t>HackerYou</t>
+    <t>Coder's Lab</t>
+  </si>
+  <si>
+    <t>Byte Academy</t>
+  </si>
+  <si>
+    <t>Operation Spark</t>
+  </si>
+  <si>
+    <t>Founders &amp; Coders</t>
+  </si>
+  <si>
+    <t>CodeCraft School</t>
+  </si>
+  <si>
+    <t>Code Institute</t>
+  </si>
+  <si>
+    <t>DESIGNATION</t>
+  </si>
+  <si>
+    <t>AngelHack Education</t>
+  </si>
+  <si>
+    <t>Coder Foundry</t>
+  </si>
+  <si>
+    <t>Le Wagon</t>
+  </si>
+  <si>
+    <t>Claim Academy</t>
+  </si>
+  <si>
+    <t>CodeMasters Academy</t>
+  </si>
+  <si>
+    <t>Origin Code Academy</t>
+  </si>
+  <si>
+    <t>Ruby On The Beach</t>
+  </si>
+  <si>
+    <t>Austin Coding Academy</t>
+  </si>
+  <si>
+    <t>Base10 Academy</t>
+  </si>
+  <si>
+    <t>Ladies Learning Code</t>
+  </si>
+  <si>
+    <t>Code Union</t>
+  </si>
+  <si>
+    <t>The Data Incubator</t>
   </si>
   <si>
     <t>Stackademy</t>
   </si>
   <si>
-    <t>DESIGNATION</t>
-  </si>
-  <si>
-    <t>CodeMasters Academy</t>
-  </si>
-  <si>
-    <t>Founders &amp; Coders</t>
-  </si>
-  <si>
-    <t>Base10 Academy</t>
-  </si>
-  <si>
-    <t>Coder's Lab</t>
+    <t>SeedPaths</t>
+  </si>
+  <si>
+    <t>Code 42</t>
+  </si>
+  <si>
+    <t>Science to Data Science</t>
+  </si>
+  <si>
+    <t>Launch School (formerly Tealeaf Academy)</t>
+  </si>
+  <si>
+    <t>Betamore</t>
   </si>
   <si>
     <t>Microsoft Research Data Science Summer School</t>
   </si>
   <si>
-    <t>Code Union</t>
-  </si>
-  <si>
-    <t>Code 42</t>
-  </si>
-  <si>
-    <t>SeedPaths</t>
-  </si>
-  <si>
-    <t>Ladies Learning Code</t>
-  </si>
-  <si>
-    <t>Science to Data Science</t>
-  </si>
-  <si>
-    <t>Le Wagon</t>
-  </si>
-  <si>
-    <t>Byte Academy</t>
-  </si>
-  <si>
-    <t>Origin Code Academy</t>
-  </si>
-  <si>
-    <t>Claim Academy</t>
-  </si>
-  <si>
-    <t>Operation Spark</t>
-  </si>
-  <si>
-    <t>Code Institute</t>
-  </si>
-  <si>
-    <t>Ruby On The Beach</t>
-  </si>
-  <si>
-    <t>Austin Coding Academy</t>
-  </si>
-  <si>
     <t>codeU</t>
   </si>
   <si>
-    <t>Coder Foundry</t>
-  </si>
-  <si>
-    <t>The Data Incubator</t>
-  </si>
-  <si>
-    <t>CodeCraft School</t>
-  </si>
-  <si>
-    <t>AngelHack Education</t>
-  </si>
-  <si>
-    <t>Launch School (formerly Tealeaf Academy)</t>
-  </si>
-  <si>
-    <t>Betamore</t>
-  </si>
-  <si>
     <t>77.78%</t>
   </si>
   <si>
@@ -397,25 +397,25 @@
     <t>96.30%</t>
   </si>
   <si>
+    <t>90.91%</t>
+  </si>
+  <si>
     <t>86.36%</t>
   </si>
   <si>
-    <t>90.91%</t>
-  </si>
-  <si>
     <t>71.43%</t>
   </si>
   <si>
     <t>52.38%</t>
   </si>
   <si>
+    <t>55.00%</t>
+  </si>
+  <si>
+    <t>90.00%</t>
+  </si>
+  <si>
     <t>70.00%</t>
-  </si>
-  <si>
-    <t>90.00%</t>
-  </si>
-  <si>
-    <t>55.00%</t>
   </si>
   <si>
     <t>61.11%</t>
@@ -944,7 +944,7 @@
         <v>22</v>
       </c>
       <c r="C9">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
         <v>127</v>
@@ -958,7 +958,7 @@
         <v>22</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
         <v>128</v>
@@ -1000,7 +1000,7 @@
         <v>20</v>
       </c>
       <c r="C13">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
         <v>131</v>
@@ -1028,7 +1028,7 @@
         <v>20</v>
       </c>
       <c r="C15">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
         <v>133</v>
@@ -1112,10 +1112,10 @@
         <v>12</v>
       </c>
       <c r="C21">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1126,10 +1126,10 @@
         <v>12</v>
       </c>
       <c r="C22">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1182,10 +1182,10 @@
         <v>10</v>
       </c>
       <c r="C26">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1196,10 +1196,10 @@
         <v>10</v>
       </c>
       <c r="C27">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1266,10 +1266,10 @@
         <v>7</v>
       </c>
       <c r="C32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1308,10 +1308,10 @@
         <v>7</v>
       </c>
       <c r="C35">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1322,10 +1322,10 @@
         <v>6</v>
       </c>
       <c r="C36">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D36" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1350,10 +1350,10 @@
         <v>6</v>
       </c>
       <c r="C38">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D38" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1364,10 +1364,10 @@
         <v>5</v>
       </c>
       <c r="C39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1378,10 +1378,10 @@
         <v>5</v>
       </c>
       <c r="C40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1392,10 +1392,10 @@
         <v>5</v>
       </c>
       <c r="C41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1406,10 +1406,10 @@
         <v>5</v>
       </c>
       <c r="C42">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1434,10 +1434,10 @@
         <v>4</v>
       </c>
       <c r="C44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1448,10 +1448,10 @@
         <v>4</v>
       </c>
       <c r="C45">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1462,10 +1462,10 @@
         <v>4</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1476,10 +1476,10 @@
         <v>4</v>
       </c>
       <c r="C47">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1490,10 +1490,10 @@
         <v>4</v>
       </c>
       <c r="C48">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1504,10 +1504,10 @@
         <v>4</v>
       </c>
       <c r="C49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1532,10 +1532,10 @@
         <v>4</v>
       </c>
       <c r="C51">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1546,10 +1546,10 @@
         <v>4</v>
       </c>
       <c r="C52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1574,10 +1574,10 @@
         <v>4</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1588,10 +1588,10 @@
         <v>4</v>
       </c>
       <c r="C55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1602,10 +1602,10 @@
         <v>4</v>
       </c>
       <c r="C56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1616,10 +1616,10 @@
         <v>3</v>
       </c>
       <c r="C57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1658,10 +1658,10 @@
         <v>3</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D60" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1672,10 +1672,10 @@
         <v>3</v>
       </c>
       <c r="C61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1714,10 +1714,10 @@
         <v>3</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D64" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1728,10 +1728,10 @@
         <v>3</v>
       </c>
       <c r="C65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1742,10 +1742,10 @@
         <v>3</v>
       </c>
       <c r="C66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1798,10 +1798,10 @@
         <v>3</v>
       </c>
       <c r="C70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D70" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1826,10 +1826,10 @@
         <v>2</v>
       </c>
       <c r="C72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D72" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1840,10 +1840,10 @@
         <v>2</v>
       </c>
       <c r="C73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D73" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1854,10 +1854,10 @@
         <v>2</v>
       </c>
       <c r="C74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D74" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1868,10 +1868,10 @@
         <v>2</v>
       </c>
       <c r="C75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D75" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1896,10 +1896,10 @@
         <v>2</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D77" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1910,10 +1910,10 @@
         <v>2</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D78" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1966,10 +1966,10 @@
         <v>2</v>
       </c>
       <c r="C82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D82" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2022,10 +2022,10 @@
         <v>2</v>
       </c>
       <c r="C86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D86" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2064,10 +2064,10 @@
         <v>2</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D89" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2078,10 +2078,10 @@
         <v>2</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D90" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="91" spans="1:4">
